--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3487274.012977149</v>
+        <v>3484730.203470067</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>208.2085323732918</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858994</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.25920201235136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.9929956148283</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.2501453813281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>12.84496163790557</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.2919664673872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.46290984333674</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>101.4926604386216</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>145.2405395700706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162076</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>18.47335059661782</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>36.87724244866461</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.3634624514352</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>66.78466399819841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>19.67525987919283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2141,10 +2141,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.25908948141942</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>245.8631022974537</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>34.44047701880672</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>57.28101103997132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>39.96816871822014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6718493954792</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.91369288257668</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>124.5931157466096</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>72.26558381699921</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>690.233069932778</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>690.233069932778</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>690.233069932778</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1498234078708</v>
+        <v>218.0341821179661</v>
       </c>
       <c r="C3" t="n">
-        <v>567.1498234078708</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4410,13 +4410,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>121.6535314649669</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313449</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278687</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
         <v>739.5286634293598</v>
@@ -4446,13 +4446,13 @@
         <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>887.8833378166544</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>887.8833378166544</v>
+        <v>425.79448088292</v>
       </c>
       <c r="Y3" t="n">
-        <v>735.3651604279389</v>
+        <v>218.0341821179661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.821524546946</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="C4" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4522,16 +4522,16 @@
         <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>622.5994491745502</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>622.5994491745502</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="X4" t="n">
-        <v>622.5994491745502</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="Y4" t="n">
-        <v>469.821524546946</v>
+        <v>101.5373044014854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822814</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822814</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
+        <v>646.8597007358178</v>
+      </c>
+      <c r="X5" t="n">
         <v>573.7617370571243</v>
       </c>
-      <c r="X5" t="n">
-        <v>307.3840804899464</v>
-      </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325.1841858830662</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>325.1841858830662</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>325.1841858830662</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>572.4823173146365</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>572.4823173146365</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>493.3995229031343</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4753,22 +4753,22 @@
         <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092332</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>493.8069210092332</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1224328033463</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>175.0184834666425</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>175.0184834666425</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.347317305397</v>
+        <v>981.8557524576161</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.347317305397</v>
+        <v>612.8932355172044</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986467</v>
+        <v>612.8932355172044</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004024</v>
+        <v>227.1049829189602</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107948</v>
+        <v>220.1594821697567</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045947</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2351.810676439052</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2098.229497964622</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342789</v>
+        <v>2098.229497964622</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072675</v>
+        <v>1745.460842694508</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.086489345331</v>
+        <v>1371.995084433428</v>
       </c>
       <c r="Y8" t="n">
-        <v>1670.947157369519</v>
+        <v>981.8557524576161</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010841</v>
+        <v>929.5097208010736</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199571</v>
+        <v>755.0566915199466</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587058</v>
+        <v>606.1222818586954</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532503</v>
+        <v>446.8848268532399</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801353</v>
+        <v>300.3502688801249</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763235</v>
+        <v>163.6480708763131</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530444933</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.4887579637185</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148188</v>
+        <v>298.0857543148174</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483008</v>
+        <v>931.8250374996551</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.361020933141</v>
+        <v>1294.891505973956</v>
       </c>
       <c r="N9" t="n">
-        <v>1613.445423405711</v>
+        <v>1842.133061471864</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359419</v>
+        <v>2174.019871459253</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2421.055229888877</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2536.272628442622</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251694</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685343</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751583</v>
+        <v>2002.726321751573</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1767.57421351983</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791639</v>
+        <v>1513.336856791628</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586106</v>
+        <v>1305.485356586096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821152</v>
+        <v>1097.725057821142</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8254789555706</v>
+        <v>535.0245104929821</v>
       </c>
       <c r="C10" t="n">
-        <v>451.8892960276637</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="D10" t="n">
-        <v>451.8892960276637</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9762024452706</v>
+        <v>366.0883275650752</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473602</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.63468308380129</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1495.906315565482</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.78784395177</v>
+        <v>1272.925014039888</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.78784395177</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.103355745883</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="W10" t="n">
-        <v>1158.103355745883</v>
+        <v>983.8066405345296</v>
       </c>
       <c r="X10" t="n">
-        <v>930.113804847866</v>
+        <v>755.8170896365123</v>
       </c>
       <c r="Y10" t="n">
-        <v>802.4739437858103</v>
+        <v>535.0245104929821</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2129.60328892373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1840.528062267928</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1585.843574062041</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5789,7 +5789,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5832,16 +5832,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>639.9526724577793</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>492.0395788753862</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>345.1496313774758</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,13 +6066,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.119525808646</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961522</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069454</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>763.7541388327643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211337</v>
       </c>
       <c r="L3" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915882</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544045</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8535,16 +8535,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084413</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>161.7749020457975</v>
       </c>
       <c r="O9" t="n">
-        <v>255.5331009760784</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-3.684623515815092e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>147.571561219435</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.2650488108494</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6.274541026374322</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.2691783702304</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4657939283488</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.9182872993606</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>24.02235727160271</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>507909.2320606943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.815770605185866e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101799</v>
+        <v>95270.23779101737</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.652755502</v>
+        <v>139261.6527555027</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678126</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678126</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678123</v>
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234004.8126458599</v>
+        <v>-234004.8126458596</v>
       </c>
       <c r="C6" t="n">
-        <v>446083.1679453334</v>
+        <v>446083.1679453337</v>
       </c>
       <c r="D6" t="n">
-        <v>136619.1091352009</v>
+        <v>136619.1091352026</v>
       </c>
       <c r="E6" t="n">
-        <v>127021.7545418755</v>
+        <v>126987.016616437</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.9866025668</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="G6" t="n">
-        <v>634930.986602567</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="H6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="I6" t="n">
-        <v>634930.9866025673</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="J6" t="n">
-        <v>565931.832183453</v>
+        <v>565897.0942580174</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025671</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="L6" t="n">
-        <v>539660.748811549</v>
+        <v>539626.0108861139</v>
       </c>
       <c r="M6" t="n">
-        <v>502213.0109070981</v>
+        <v>502178.2729816622</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.2486771316</v>
       </c>
       <c r="O6" t="n">
-        <v>634930.9866025673</v>
+        <v>634896.2486771315</v>
       </c>
       <c r="P6" t="n">
-        <v>634930.9866025673</v>
+        <v>634896.2486771314</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.702459562782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933039</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.081183229931412</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842355</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430496</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.68970016247607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727662</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.33450797076665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>336.3960070795075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>127.3907293099172</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.0600884932543</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496279</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>224.4905611083984</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77644916452428</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164534611</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>157.7966078017199</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.22119090065962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,10 +28564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,16 +31282,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31300,25 +31300,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31461,19 +31461,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763185</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359933</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.760257752507</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307887</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983015</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140463</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571276</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617161</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152208</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519079</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133927</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415874</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307407</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>467.1465236515248</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,16 +32786,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>336.3457189021241</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663289</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181836</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>535.8585467435953</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,7 +34217,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
-        <v>194.0102040017881</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087206</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.347194155916</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091019</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.536173343032</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234269</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.90656844127568</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>186.4616124758575</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856973</v>
+        <v>366.7338065396978</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>552.769247977685</v>
       </c>
       <c r="O9" t="n">
-        <v>590.772302983543</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804292</v>
+        <v>249.5306650804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783562</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873304</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>328.5921438716506</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36434,16 +36434,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>205.0040068187907</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.2623022991509</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,7 +37865,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38096,19 +38096,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
